--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ja_JP.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ja_JP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5148">
   <si>
     <t>translation_group</t>
   </si>
@@ -15415,12 +15415,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 通知</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>2021-02-24T11：44：54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -15807,17 +15801,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54464,18 +54458,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5132</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5133</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54485,10 +54471,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5134</v>
+        <v>5132</v>
       </c>
       <c r="D2763" t="s">
-        <v>5135</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54499,10 +54485,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5136</v>
+        <v>5134</v>
       </c>
       <c r="D2764" t="s">
-        <v>5137</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54513,10 +54499,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="D2765" t="s">
-        <v>5139</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54527,10 +54513,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5140</v>
+        <v>5138</v>
       </c>
       <c r="D2766" t="s">
-        <v>5141</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54541,10 +54527,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
       <c r="D2767" t="s">
-        <v>5143</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54555,10 +54541,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
       <c r="D2768" t="s">
-        <v>5145</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54569,10 +54555,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="D2769" t="s">
-        <v>5147</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54611,11 +54597,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
       <c r="D2772" t="s">
-        <v>5149</v>
-      </c>
+        <v>5147</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ja_JP.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ja_JP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6121">
   <si>
     <t>translation_group</t>
   </si>
@@ -10109,7 +10109,7 @@
     <t>Seo設定</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
     <t>検索エンジンであなたのウェブサイトを見つけるときに最大の結果を得るためにフィールドに記入してください。</t>
@@ -16927,6 +16927,1471 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Microweberへようこそ</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Microweberを使用して、Webサイト、オンラインショップ、またはブログを構築します。</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>コンテンツの作成と編集、オンラインでの販売、注文とクライアントの管理。</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>削除する</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>このテンプレートを使用しています。</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>変更は現在のページにのみ影響します。</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>複数のテンプレートを許可する</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>複数のテンプレートを許可すると、新しいページを作成するときに異なるテンプレートを使用できるようになります。</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>システムの電子メールWebサイトの設定</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>新規登録、パスワードのリセット、その他のシステム機能に関連するメッセージを配信します。</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>メールアドレスから</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>例あなたのウェブサイト名</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>一般的な電子メールプロバイダーの設定</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>メールプロバイダーを設定します。</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>一般的な電子メールプロバイダーは、Webサイトに関連するすべてのメッセージを配信します。システムメッセージとお問い合わせフォームメッセージを含みます。</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>ウェブサイトのロゴ</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>あなたのウェブサイトのロゴを選択してください。</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>ウェブサイトファビコン</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>デフォルト言語の変更。</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>キャッシュの消去..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>多言語モジュールをインストールする</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>ユーザーは、次のような一時的な電子メールで登録できます-Mailinator、MailDrop、Guerrilla ... s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>登録ユーザーは、あなたからの自動メールを自動的に受信できます。設定を確認し、メッセージを投稿してください。</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>管理者ユーザーに新規ユーザー登録に関する電子メールを送信する</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>新しいユーザーが登録されたときに管理者が電子メールを受信できるようにしますか？</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweberは、無料のオープンソースのドラッグアンドドロップWebサイトビルダーおよびCMSです。 MITライセンスの下にあり、LaravelPHPフレームワークを使用しています</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>住所への配送</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>住所からのピックアップ</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>全体設定</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>電子メールの統合</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>システムの電子メールとSMTPの設定がありません。</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>ここでシステム設定をセットアップします。</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>グローバルお問い合わせフォームの設定</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>電子メール送信オプション</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>グローバル送信者</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>カスタム送信者設定を使用する</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>グローバル連絡フォームにカスタム送信者設定を使用します。</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>デフォルトでは、Webサイトシステムの電子メール設定を使用します。</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>ここでシステムの電子メール設定を変更できます。</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>グローバルレシーバー</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>送信時に連絡フォームデータをグローバル受信者に送信する</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>メールアドレスへ</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>コマで区切られた受信者の電子メールアドレス。</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>PHP SOAP拡張を有効にするには、ホスティングプロバイダーに連絡してください。</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>要素</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2ヶ月前</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>ロゴを削除する</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>ファビコンを削除する</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>カスタム</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>タイムライン</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>ホワイトラベルWHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>目に見える証言の数</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>コンテンツバージョン</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>デフォルトのレイアウトと要素</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>矢印リスト</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>チェックリスト</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>背景テキスト</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>テキスト付きのタイトル</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>テキスト付きのアイコン</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>2つのテキスト列</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>アイコンとタイトルの2つのテキスト列</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>タイトルとテキスト付きの画像</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>画像とタイトルのテキスト</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>コメントを有効にする</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">からキャプチャ設定を設定します </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>現在のお問い合わせフォームの設定</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>お問い合わせフォーム名</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>このお問い合わせフォームの名前は何ですか？</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>レシーバー</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>送信時にお問い合わせフォームデータをカスタム受信者に送信します</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>現在の連絡フォームにカスタムレシーバー設定を使用します。</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>デフォルトでは、お問い合わせフォームのグローバル設定を使用します。</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>ここでお問い合わせフォームのグローバル設定を変更できます。</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>ユーザーへの自動応答メッセージ</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>ユーザーへの自動応答メッセージを有効にする</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>ユーザーが「サブスクリプション後にありがとうメール」を受信できるようにします。</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>自動応答の件名</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>オートレスポンダーを使用すると、受信メールへの自動返信を設定できます</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>ユーザーに返送された自動応答メール</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>カスタム送信者の自動応答</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>現在の連絡フォームにカスタム送信者設定を使用します。</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>メールアドレスからの自動返信</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>名前からの自動応答</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>電子メールへの返信の自動応答</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>ユーザーが自動応答メッセージを受信すると、電子メールに返信するために応答することができます。</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>電子メールの添付ファイルの自動応答</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>まだ投稿はありません</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>今すぐ最初の投稿を作成してください。</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>投稿を作成する</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>販売する商品説明の書き方
+                                                    ストアを成功させるためにできる最善のことの1つは、優れた商品説明を書くことに時間を費やすことです。潜在的な顧客に購入を促す詳細でありながら簡潔な情報を提供したいと考えています。
+                                                    消費者のように考える
+                                                    消費者としてのあなたが知りたいことを考え、それらの機能を説明に含めます。服の場合：素材とフィット感。食品の場合：材料とその調理方法。箇条書きは、
+                                                   の機能をリストするときの友達です—それぞれを
+                                                            語に制限するようにしてください。</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>管理言語</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>制限</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>コードエディタ</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>ブログ</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>タイトル</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>タイトル1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>タイトル2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>タイトル3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>タイトル4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>タイトル5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>タイトル6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>タイトル7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>タイトル8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>テキストブロック</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>テキストブロック1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>テキストブロック2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>テキストブロック3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>テキストブロック4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>テキストブロック5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>テキストブロック6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>テキストブロック7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>テキストブロック8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>テキストブロック9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>テキストブロック10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>テキストブロック11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>テキストブロック12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>テキストブロック13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>テキストブロック14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>テキストブロック15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>メニュー-スキン-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>メニュー-スキン-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>メニュー-スキン-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>メニュー-スキン-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>メニュー-スキン-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>フッター</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>フッター1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>フッター2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>フッター3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>フッター4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>他の</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>ジャンボトロン</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>ジャンボトロン1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>価格1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>デフォルトのレイアウト</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>ここにコンテンツはありません</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>カスタムフィールドが保存されます</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>既存のフィールド</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>以下の既存のフィールドから選択してください</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新しいフィールドを追加する</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>以下のリストから新しいカスタムフィールドを追加します</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>あなたの分野</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>追加したカスタムフィールドのリスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">垂直に繰り返す </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>フォントファミリー</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>かぶせる</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>ブレンドモード</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>容器</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>コンテナタイプ</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>アニメーション</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>スタイルのリロード</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>へのリンク</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>プレビューパッケージ</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>デモ</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>使用する</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>現在</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>再注文</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>システム</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>ブラウザリダイレクト</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>統合</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>スタンドアロンアップデータ</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>このパッケージをインストールするには、ライセンスキーが必要です</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>このパッケージはプレミアムであり、インストールするにはライセンスキーが必要です</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>ライセンスキーが必要です</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>ライセンスがアクティブ化されました</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>ページをリロードしています</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>ライセンスがアクティブ化されていません</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>システムアップデート</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>システムアップデートを確認する</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>リストに戻る</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>カテゴリには名前が必要です</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>カテゴリは非表示ですか？</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>これをYESに設定すると、このカテゴリはWebサイトから非表示になります</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>言及</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>あなたのカートは空です。</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>見つかった結果</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>選択フィールドからパーセントを選択すると、製品の価格とオファー価格から自動的に計算されます。</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>أضفمنتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US。</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>تحريرالمنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>チェックアウトに進む</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>تحريرآخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>の</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>結果）</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>ページタイトル-右ブレッドクラム</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>ページタイトル-左ブレッドクラム</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>利用規約</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>配達と返品</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>約1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>約2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>約3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>ホーム1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>ホーム2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>テンプレートを変更するには、[テンプレートの適用]ボタンをクリックする必要があります</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>条件で検索</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>デートから</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>日付から注文を設定する</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>注文を日付に設定する</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>からの注文金額</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>最小金額で注文を表示する</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>注文金額</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>最大金額で注文を表示</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>製品で検索...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>製品で検索</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>支払い状況</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>電話、名前、メールアドレスなどで無料検索...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>この基準を提出する</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>フィルタをリセット</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>すべてエクスポート</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>並べ替えを選択</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>注文日</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[新&gt;旧]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[古い&gt;新しい]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[高&gt;低]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[低&gt;高]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>multilnaguageモジュールからの翻訳がデータベースで見つかりました。</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>警告！デフォルトの言語を変更すると、サイトの翻訳が壊れることがあります。</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>続行しますか？</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>警告！デフォルト言語を変更すると、サイトが破損する可能性があります。</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>配送の詳細</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>注文はまだ完了していません</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>注文が完了しました</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>で更新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">クイックビュー </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>言語値を置き換える</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>翻訳がインポートされます</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">データベースに翻訳が見つかりません。翻訳をインポートしますか？ </t>
   </si>
 </sst>
 </file>
@@ -16950,10 +18415,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -16964,7 +18426,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17265,7 +18727,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67576,8 +69038,4393 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5636</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5637</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5638</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5639</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5640</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5641</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5642</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>5643</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5644</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5645</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5646</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5647</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5648</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5649</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5650</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5651</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5652</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5653</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5654</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5655</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5656</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5657</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5658</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5659</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5660</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5661</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5662</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5663</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5664</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5665</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5666</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5667</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5668</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5669</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5670</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5671</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>4997</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5672</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5673</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5674</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5675</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5676</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5677</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5678</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5679</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5680</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>5681</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5682</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5684</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5685</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5686</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5687</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5688</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5689</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5690</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>653</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5691</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5692</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5693</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5694</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5695</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5696</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5697</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5698</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5699</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5700</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5701</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5702</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5703</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5704</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5705</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5706</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5707</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5709</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5710</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5711</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5712</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5717</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5718</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5719</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5720</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5721</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5722</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5723</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5724</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5726</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5727</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5728</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5729</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5730</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>5732</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5736</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5737</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5737</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5738</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5740</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>5744</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>2882</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5750</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5751</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5752</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5754</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5755</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5756</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5757</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5758</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5759</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5760</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5761</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5762</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5763</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5764</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5765</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5766</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5767</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5768</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5769</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>4850</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5773</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5774</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4860</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5795</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5796</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5797</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5799</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>822</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5804</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5806</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5807</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5808</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5810</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5812</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5813</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5814</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5816</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5817</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5818</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>4198</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5821</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5822</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5823</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5825</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5826</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5827</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5828</v>
+      </c>
+      <c r="E3062" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5836</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5841</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5842</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5843</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5844</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5845</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5846</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5847</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5848</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5852</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5855</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5856</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5857</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5858</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5860</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5862</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5866</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5868</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5869</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5870</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5874</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5878</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5879</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5880</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5881</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5882</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5883</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5884</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5885</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5886</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5887</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5888</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5288</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5290</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5292</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5891</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5294</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5893</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5894</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5895</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5897</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5898</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5899</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5902</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5903</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5904</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5905</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5906</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5907</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5909</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5910</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5911</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5912</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5913</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5914</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>5915</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5916</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5917</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5918</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5919</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5920</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>2662</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>5990</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>5991</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>5993</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>5995</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>5996</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>5997</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>5998</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>5999</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6001</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6002</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5826</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6012</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6013</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6014</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6013</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6016</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6018</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6020</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6021</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6023</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6024</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>2241</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6026</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6027</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6028</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6030</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6031</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6033</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6034</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6036</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6038</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6039</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6041</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6043</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6045</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6047</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6048</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6049</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6050</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6051</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6052</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6053</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6054</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6056</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>910</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6060</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6062</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6063</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6064</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6065</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6066</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6067</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6068</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6069</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6070</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6071</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6072</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6074</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6075</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6076</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6077</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6081</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6083</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6087</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6093</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>493</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6095</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6096</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6098</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6099</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6100</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6103</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6104</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6105</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4316</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6106</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6107</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6109</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>2918</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6111</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6112</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6115</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6116</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6117</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6118</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6119</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6120</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -67589,5 +73436,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/ja_JP.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/ja_JP.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5941">
   <si>
     <t>translation_group</t>
   </si>
@@ -10112,7 +10112,7 @@
     <t>Fill in the fields for maximum results when finding your website in search engines.</t>
   </si>
   <si>
-    <t>検索エンジンであなたのウェブサイトを見つけるときに最大の結果を得るためにフィールドに記入してください。</t>
+    <t>検索エンジンでウェブサイトを見つけたときに最大の結果が得られるように、フィールドに入力してください。</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -16932,19 +16932,19 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>Microweberへようこそ</t>
+    <t>マイクロウェーバーへようこそ</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Microweberを使用して、Webサイト、オンラインショップ、またはブログを構築します。</t>
+    <t>Microweber を使用して、ウェブサイト、オンライン ショップ、またはブログを構築します。</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
   </si>
   <si>
-    <t>コンテンツの作成と編集、オンラインでの販売、注文とクライアントの管理。</t>
+    <t>コンテンツの作成と編集、オンライン販売、注文とクライアントの管理を行います。</t>
   </si>
   <si>
     <t>Remove</t>
@@ -16977,13 +16977,13 @@
     <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
   </si>
   <si>
-    <t>複数のテンプレートを許可すると、新しいページを作成するときに異なるテンプレートを使用できるようになります。</t>
+    <t>複数のテンプレートを許可すると、新しいページを作成するときに別のテンプレートを使用できます。</t>
   </si>
   <si>
     <t>System e-mail website settings</t>
   </si>
   <si>
-    <t>システムの電子メールWebサイトの設定</t>
+    <t>システムの電子メール Web サイトの設定</t>
   </si>
   <si>
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
@@ -17001,25 +17001,25 @@
     <t>Ex. Your Website Name</t>
   </si>
   <si>
-    <t>例あなたのウェブサイト名</t>
+    <t>元。あなたのウェブサイト名</t>
   </si>
   <si>
     <t>General e-mail provider settings</t>
   </si>
   <si>
-    <t>一般的な電子メールプロバイダーの設定</t>
+    <t>一般的な電子メール プロバイダーの設定</t>
   </si>
   <si>
     <t>Set up your email provider.</t>
   </si>
   <si>
-    <t>メールプロバイダーを設定します。</t>
+    <t>メール プロバイダーをセットアップします。</t>
   </si>
   <si>
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>一般的な電子メールプロバイダーは、Webサイトに関連するすべてのメッセージを配信します。システムメッセージとお問い合わせフォームメッセージを含みます。</t>
+    <t>一般的な電子メール プロバイダーは、Web サイトに関連するすべてのメッセージを配信します。システムメッセージとコンタクトフォームメッセージを含みます。</t>
   </si>
   <si>
     <t>Website Logo</t>
@@ -17031,22 +17031,25 @@
     <t>Select an logo for your website.</t>
   </si>
   <si>
-    <t>あなたのウェブサイトのロゴを選択してください。</t>
+    <t>Web サイトのロゴを選択します。</t>
   </si>
   <si>
     <t>Upload logo</t>
   </si>
   <si>
+    <t>ロゴをアップロード</t>
+  </si>
+  <si>
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>ウェブサイトファビコン</t>
+    <t>ウェブサイトのファビコン</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>デフォルト言語の変更。</t>
+    <t>デフォルト言語の変更..</t>
   </si>
   <si>
     <t>Clear cache..</t>
@@ -17058,37 +17061,37 @@
     <t>Install Multilanguage Module</t>
   </si>
   <si>
-    <t>多言語モジュールをインストールする</t>
+    <t>多言語モジュールのインストール</t>
   </si>
   <si>
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
-    <t>ユーザーは、次のような一時的な電子メールで登録できます-Mailinator、MailDrop、Guerrilla ... s</t>
+    <t>ユーザーは、Mailinator、MailDrop、Guerrilla などの一時的なメールで登録できます。</t>
   </si>
   <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
-    <t>登録ユーザーは、あなたからの自動メールを自動的に受信できます。設定を確認し、メッセージを投稿してください。</t>
+    <t>登録ユーザーは、あなたからの自動メールを自動的に受け取ることができます。設定を確認し、メッセージを投稿してください。</t>
   </si>
   <si>
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>管理者ユーザーに新規ユーザー登録に関する電子メールを送信する</t>
+    <t>新規ユーザー登録のメールを管理者ユーザーに送信</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>新しいユーザーが登録されたときに管理者が電子メールを受信できるようにしますか？</t>
+    <t>新しいユーザーが登録されたときに管理者に電子メールを送信しますか?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweberは、無料のオープンソースのドラッグアンドドロップWebサイトビルダーおよびCMSです。 MITライセンスの下にあり、LaravelPHPフレームワークを使用しています</t>
+    <t>Microweber は、無料のオープン ソースのドラッグ アンド ドロップ Web サイト ビルダーおよび CMS です。 MITライセンスの下で、Laravel PHPフレームワークを使用しています</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17097,9 +17100,6 @@
     <t>Shipping to address</t>
   </si>
   <si>
-    <t>住所への配送</t>
-  </si>
-  <si>
     <t>Pickup from address</t>
   </si>
   <si>
@@ -17121,7 +17121,7 @@
     <t>You don't have system e-mail and smtp setup.</t>
   </si>
   <si>
-    <t>システムの電子メールとSMTPの設定がありません。</t>
+    <t>システムの電子メールと smtp のセットアップがありません。</t>
   </si>
   <si>
     <t>Setup your system settings here.</t>
@@ -17133,13 +17133,13 @@
     <t>Global contact form settings</t>
   </si>
   <si>
-    <t>グローバルお問い合わせフォームの設定</t>
+    <t>お問い合わせフォームのグローバル設定</t>
   </si>
   <si>
     <t>E-mail sending options</t>
   </si>
   <si>
-    <t>電子メール送信オプション</t>
+    <t>メール送信オプション</t>
   </si>
   <si>
     <t>Global sender</t>
@@ -17157,19 +17157,19 @@
     <t>Use custom sender settings for the global contact forms.</t>
   </si>
   <si>
-    <t>グローバル連絡フォームにカスタム送信者設定を使用します。</t>
+    <t>グローバル コンタクト フォームのカスタム送信者設定を使用します。</t>
   </si>
   <si>
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>デフォルトでは、Webサイトシステムの電子メール設定を使用します。</t>
+    <t>デフォルトでは、Web サイト システムの電子メール設定を使用します。</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
   </si>
   <si>
-    <t>ここでシステムの電子メール設定を変更できます。</t>
+    <t>ここで、システムの電子メール設定を変更できます。</t>
   </si>
   <si>
     <t>Global Receivers</t>
@@ -17181,7 +17181,7 @@
     <t>Send contact forms data to global receivers when is submited</t>
   </si>
   <si>
-    <t>送信時に連絡フォームデータをグローバル受信者に送信する</t>
+    <t>送信時に連絡先フォーム データをグローバル レシーバーに送信する</t>
   </si>
   <si>
     <t>To e-mail addresses</t>
@@ -17193,13 +17193,13 @@
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>コマで区切られた受信者の電子メールアドレス。</t>
+    <t>カンマで区切られた受信者の電子メール アドレス。</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>PHP SOAP拡張を有効にするには、ホスティングプロバイダーに連絡してください。</t>
+    <t>ホスティング プロバイダーに連絡して、PHP SOAP 拡張機能を有効にしてください。</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17217,13 +17217,13 @@
     <t>Remove logo</t>
   </si>
   <si>
-    <t>ロゴを削除する</t>
+    <t>ロゴを削除</t>
   </si>
   <si>
     <t>Remove favicon</t>
   </si>
   <si>
-    <t>ファビコンを削除する</t>
+    <t>ファビコンを削除</t>
   </si>
   <si>
     <t>Custom</t>
@@ -17238,6 +17238,9 @@
     <t>ProductsV2</t>
   </si>
   <si>
+    <t>製品V2</t>
+  </si>
+  <si>
     <t>Timeline</t>
   </si>
   <si>
@@ -17247,22 +17250,25 @@
     <t>White label WHMCS</t>
   </si>
   <si>
-    <t>ホワイトラベルWHMCS</t>
+    <t>ホワイトレーベル WHMCS</t>
   </si>
   <si>
     <t>Number of the visible testimonials</t>
   </si>
   <si>
-    <t>目に見える証言の数</t>
+    <t>目に見える体験談の数</t>
   </si>
   <si>
     <t>Module template has changed</t>
   </si>
   <si>
+    <t>モジュール テンプレートが変更されました</t>
+  </si>
+  <si>
     <t>Content versions</t>
   </si>
   <si>
-    <t>コンテンツバージョン</t>
+    <t>コンテンツのバージョン</t>
   </si>
   <si>
     <t>Clear Cache</t>
@@ -17277,7 +17283,7 @@
     <t>Arrows List</t>
   </si>
   <si>
-    <t>矢印リスト</t>
+    <t>矢一覧</t>
   </si>
   <si>
     <t>Checked List</t>
@@ -17307,13 +17313,13 @@
     <t>Two Text Columns</t>
   </si>
   <si>
-    <t>2つのテキスト列</t>
+    <t>2 つのテキスト列</t>
   </si>
   <si>
     <t>Two text columns with icon and title</t>
   </si>
   <si>
-    <t>アイコンとタイトルの2つのテキスト列</t>
+    <t>アイコンとタイトルを含む 2 つのテキスト列</t>
   </si>
   <si>
     <t>Image with Title and Text</t>
@@ -17325,12 +17331,15 @@
     <t>Text with Image and Title</t>
   </si>
   <si>
-    <t>画像とタイトルのテキスト</t>
+    <t>画像とタイトル付きのテキスト</t>
   </si>
   <si>
     <t>Text with Image</t>
   </si>
   <si>
+    <t>画像付きテキスト</t>
+  </si>
+  <si>
     <t>Enable comments</t>
   </si>
   <si>
@@ -17343,12 +17352,15 @@
     <t xml:space="preserve">Setup your captcha preferences from </t>
   </si>
   <si>
-    <t xml:space="preserve">からキャプチャ設定を設定します </t>
+    <t xml:space="preserve">からキャプチャ設定をセットアップします </t>
   </si>
   <si>
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>カスタムフィールドを使用してフォームのフィールドを追加/編集する</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
@@ -17364,7 +17376,7 @@
     <t>What is the name of this contact form?</t>
   </si>
   <si>
-    <t>このお問い合わせフォームの名前は何ですか？</t>
+    <t>このお問い合わせフォームの名前は何ですか?</t>
   </si>
   <si>
     <t>Receivers</t>
@@ -17376,25 +17388,25 @@
     <t>Send contact form data to custom receivers when is submited</t>
   </si>
   <si>
-    <t>送信時にお問い合わせフォームデータをカスタム受信者に送信します</t>
+    <t>送信時に連絡先フォーム データをカスタム レシーバーに送信する</t>
   </si>
   <si>
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>現在の連絡フォームにカスタムレシーバー設定を使用します。</t>
+    <t>現在のコンタクト フォームにカスタム レシーバー設定を使用します。</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
   </si>
   <si>
-    <t>デフォルトでは、お問い合わせフォームのグローバル設定を使用します。</t>
+    <t>デフォルトでは、コンタクトフォームのグローバル設定を使用します。</t>
   </si>
   <si>
     <t>You can change the contact form global settings here.</t>
   </si>
   <si>
-    <t>ここでお問い合わせフォームのグローバル設定を変更できます。</t>
+    <t>ここでコンタクトフォームのグローバル設定を変更できます。</t>
   </si>
   <si>
     <t>Auto respond message to user</t>
@@ -17412,79 +17424,79 @@
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>ユーザーが「サブスクリプション後にありがとうメール」を受信できるようにします。</t>
+    <t>ユーザーが「購読後のお礼メール」を受信できるようにします。</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>自動応答の件名</t>
+    <t>自動応答件名</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
   </si>
   <si>
-    <t>オートレスポンダーを使用すると、受信メールへの自動返信を設定できます</t>
-  </si>
-  <si>
     <t>Auto respond message</t>
   </si>
   <si>
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>ユーザーに返送された自動応答メール</t>
+    <t>ユーザーに自動返信メールが送信される</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>カスタム送信者の自動応答</t>
+    <t>自動応答のカスタム送信者</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
   </si>
   <si>
-    <t>現在の連絡フォームにカスタム送信者設定を使用します。</t>
+    <t>現在の連絡先フォームにカスタム送信者設定を使用します。</t>
   </si>
   <si>
     <t>Auto respond from e-mail address</t>
   </si>
   <si>
-    <t>メールアドレスからの自動返信</t>
+    <t>メールアドレスからの自動応答</t>
   </si>
   <si>
     <t>Auto respond from name</t>
   </si>
   <si>
-    <t>名前からの自動応答</t>
+    <t>名前から自動返信</t>
   </si>
   <si>
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>電子メールへの返信の自動応答</t>
+    <t>電子メールへの自動応答返信</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
   </si>
   <si>
-    <t>ユーザーが自動応答メッセージを受信すると、電子メールに返信するために応答することができます。</t>
+    <t>ユーザーが自動応答メッセージを受信すると、電子メールに返信するために返信できます。</t>
   </si>
   <si>
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>電子メールの添付ファイルの自動応答</t>
+    <t>自動応答電子メールの添付ファイル</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
   </si>
   <si>
+    <t>og画像を添付したい場合は、「メディアを追加」からギャラリーにアップロードする必要があります</t>
+  </si>
+  <si>
     <t>You don’t have any posts yet</t>
   </si>
   <si>
-    <t>まだ投稿はありません</t>
+    <t>まだ投稿がありません</t>
   </si>
   <si>
     <t>Create your first post right now.</t>
@@ -17510,12 +17522,12 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>販売する商品説明の書き方
-                                                    ストアを成功させるためにできる最善のことの1つは、優れた商品説明を書くことに時間を費やすことです。潜在的な顧客に購入を促す詳細でありながら簡潔な情報を提供したいと考えています。
-                                                    消費者のように考える
-                                                    消費者としてのあなたが知りたいことを考え、それらの機能を説明に含めます。服の場合：素材とフィット感。食品の場合：材料とその調理方法。箇条書きは、
-                                                   の機能をリストするときの友達です—それぞれを
-                                                            語に制限するようにしてください。</t>
+    <t xml:space="preserve">
+                                                    を売る商品説明の書き方 ストアを成功させるためにできる最善のことの 1 つは、優れた商品説明を書くことに時間を投資することです。潜在的な顧客の購買意欲をかき立てる、詳細かつ簡潔な情報を提供する必要があります。
+                                                    消費者の立場で考える
+                                                    消費者として何を知りたいかを考え、それらの機能を説明に含めます。服の場合：素材とフィット感。食品の場合: 材料と調理方法。
+                                                   個の機能をリストするときは、箇条書きが便利です。
+                                                            個の機能をそれぞれ 5 ～ 8 語に制限してください。</t>
   </si>
   <si>
     <t>Admin language</t>
@@ -17524,280 +17536,262 @@
     <t>管理言語</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>サブページを追加</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>カテゴリを削除しました</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>コンテンツを削除しました</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>カテゴリを検索</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>コンテンツを作成する</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>どれでも</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>ID 説明</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
+    <t>昇順ID</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
-    <t>制限</t>
+    <t>リミット</t>
+  </si>
+  <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>本当に削除しますか?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>商品がありません</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>戻る</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>カスタム フィールドが保存されます</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>既存のフィールド</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>以下の既存のフィールドから選択してください</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新しいフィールドを追加</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>以下のリストから新しいカスタム フィールドを追加します</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>あなたのフィールド</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>追加したカスタム フィールドのリスト</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>株式</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>システム</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>ブログ</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>ブラウザのリダイレクト</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>統合</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>インポート エクスポート ツール</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>スタンドアロン アップデーター</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>パッケージのプレビュー</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>デモ</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>使用する</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>現時点の</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>特急</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>ファーストクラス</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>クリック＆コレクト</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>ビデオの背景</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>多言語モジュールを有効にして複数の言語を使用できます</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>多言語モード</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>コンテンツに複数の言語を使用するには、多言語モードを有効にします。</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>翻訳がインポートされます</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">データベースに翻訳が見つかりません。翻訳をインポートしますか? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>あなたのカートは空です。</t>
   </si>
   <si>
     <t>Code Editor</t>
   </si>
   <si>
-    <t>コードエディタ</t>
-  </si>
-  <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>ブログ</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>タイトル</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>タイトル1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>タイトル2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>タイトル3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>タイトル4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>タイトル5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>タイトル6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>タイトル7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>タイトル8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>テキストブロック</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>テキストブロック1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>テキストブロック2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>テキストブロック3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>テキストブロック4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>テキストブロック5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>テキストブロック6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>テキストブロック7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>テキストブロック8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>テキストブロック9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>テキストブロック10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>テキストブロック11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>テキストブロック12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>テキストブロック13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>テキストブロック14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>テキストブロック15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>メニュー-スキン-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>メニュー-スキン-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>メニュー-スキン-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>メニュー-スキン-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>メニュー-スキン-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>フッター</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>フッター1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>フッター2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>フッター3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>フッター4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>他の</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>ジャンボトロン</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>ジャンボトロン1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>価格1</t>
+    <t>コード エディター</t>
   </si>
   <si>
     <t>Default layouts</t>
@@ -17806,58 +17800,16 @@
     <t>デフォルトのレイアウト</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>ここにコンテンツはありません</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>カスタムフィールドが保存されます</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>既存のフィールド</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>以下の既存のフィールドから選択してください</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 新しいフィールドを追加する</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>以下のリストから新しいカスタムフィールドを追加します</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>あなたの分野</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>追加したカスタムフィールドのリスト</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>新しいインポート</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
   </si>
   <si>
-    <t xml:space="preserve">垂直に繰り返す </t>
+    <t xml:space="preserve">縦に繰り返す </t>
   </si>
   <si>
     <t>Font Family</t>
@@ -17900,498 +17852,6 @@
   </si>
   <si>
     <t>スタイルのリロード</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>へのリンク</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>プレビューパッケージ</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>デモ</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>使用する</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>現在</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>再注文</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>システム</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>ブラウザリダイレクト</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>統合</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>スタンドアロンアップデータ</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>このパッケージをインストールするには、ライセンスキーが必要です</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>このパッケージはプレミアムであり、インストールするにはライセンスキーが必要です</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>ライセンスキーが必要です</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>ライセンスがアクティブ化されました</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>ページをリロードしています</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>ライセンスがアクティブ化されていません</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>システムアップデート</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>システムアップデートを確認する</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>リストに戻る</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>カテゴリには名前が必要です</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>カテゴリは非表示ですか？</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>これをYESに設定すると、このカテゴリはWebサイトから非表示になります</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>言及</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>あなたのカートは空です。</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>見つかった結果</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>選択フィールドからパーセントを選択すると、製品の価格とオファー価格から自動的に計算されます。</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>أضفمنتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US。</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>تحريرالمنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>チェックアウトに進む</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>تحريرآخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>の</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>結果）</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>ページタイトル-右ブレッドクラム</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>ページタイトル-左ブレッドクラム</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>利用規約</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>配達と返品</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>約1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>約2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>約3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>ホーム1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>ホーム2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>テンプレートを変更するには、[テンプレートの適用]ボタンをクリックする必要があります</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>条件で検索</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>デートから</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>日付から注文を設定する</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>注文を日付に設定する</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>からの注文金額</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>最小金額で注文を表示する</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>注文金額</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>最大金額で注文を表示</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>製品で検索...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>製品で検索</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>支払い状況</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>電話、名前、メールアドレスなどで無料検索...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>この基準を提出する</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>フィルタをリセット</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>すべてエクスポート</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>並べ替えを選択</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>注文日</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[新&gt;旧]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[古い&gt;新しい]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[高&gt;低]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[低&gt;高]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>multilnaguageモジュールからの翻訳がデータベースで見つかりました。</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>警告！デフォルトの言語を変更すると、サイトの翻訳が壊れることがあります。</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>続行しますか？</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>警告！デフォルト言語を変更すると、サイトが破損する可能性があります。</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>配送の詳細</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>注文はまだ完了していません</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>注文が完了しました</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>で更新</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">クイックビュー </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>言語値を置き換える</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>翻訳がインポートされます</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">データベースに翻訳が見つかりません。翻訳をインポートしますか？ </t>
   </si>
 </sst>
 </file>
@@ -18727,7 +18187,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69355,7 +68815,7 @@
         <v>5671</v>
       </c>
       <c r="D2978" t="s">
-        <v>4997</v>
+        <v>5672</v>
       </c>
       <c r="E2978" t="s">
         <v>8</v>
@@ -69369,10 +68829,10 @@
         <v>5</v>
       </c>
       <c r="C2979" t="s">
-        <v>5672</v>
+        <v>5673</v>
       </c>
       <c r="D2979" t="s">
-        <v>5673</v>
+        <v>5674</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -69386,10 +68846,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
-        <v>5674</v>
+        <v>5675</v>
       </c>
       <c r="D2980" t="s">
-        <v>5675</v>
+        <v>5676</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -69403,10 +68863,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
-        <v>5676</v>
+        <v>5677</v>
       </c>
       <c r="D2981" t="s">
-        <v>5677</v>
+        <v>5678</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -69420,10 +68880,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
-        <v>5678</v>
+        <v>5679</v>
       </c>
       <c r="D2982" t="s">
-        <v>5679</v>
+        <v>5680</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -69437,10 +68897,10 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
-        <v>5680</v>
+        <v>5681</v>
       </c>
       <c r="D2983" t="s">
-        <v>5681</v>
+        <v>5682</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -69454,10 +68914,10 @@
         <v>5</v>
       </c>
       <c r="C2984" t="s">
-        <v>5682</v>
+        <v>5683</v>
       </c>
       <c r="D2984" t="s">
-        <v>5683</v>
+        <v>5684</v>
       </c>
       <c r="E2984" t="s">
         <v>8</v>
@@ -69471,10 +68931,10 @@
         <v>5</v>
       </c>
       <c r="C2985" t="s">
-        <v>5684</v>
+        <v>5685</v>
       </c>
       <c r="D2985" t="s">
-        <v>5685</v>
+        <v>5686</v>
       </c>
       <c r="E2985" t="s">
         <v>8</v>
@@ -69488,10 +68948,10 @@
         <v>5</v>
       </c>
       <c r="C2986" t="s">
-        <v>5686</v>
+        <v>5687</v>
       </c>
       <c r="D2986" t="s">
-        <v>5687</v>
+        <v>5688</v>
       </c>
       <c r="E2986" t="s">
         <v>8</v>
@@ -69505,10 +68965,10 @@
         <v>5</v>
       </c>
       <c r="C2987" t="s">
-        <v>5688</v>
+        <v>5689</v>
       </c>
       <c r="D2987" t="s">
-        <v>5689</v>
+        <v>5690</v>
       </c>
       <c r="E2987" t="s">
         <v>8</v>
@@ -69522,7 +68982,7 @@
         <v>5</v>
       </c>
       <c r="C2988" t="s">
-        <v>5690</v>
+        <v>5691</v>
       </c>
       <c r="D2988" t="s">
         <v>653</v>
@@ -69539,10 +68999,10 @@
         <v>5</v>
       </c>
       <c r="C2989" t="s">
-        <v>5691</v>
+        <v>5692</v>
       </c>
       <c r="D2989" t="s">
-        <v>5692</v>
+        <v>4540</v>
       </c>
       <c r="E2989" t="s">
         <v>8</v>
@@ -69967,7 +69427,7 @@
         <v>5738</v>
       </c>
       <c r="D3014" t="s">
-        <v>5738</v>
+        <v>5739</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -69981,10 +69441,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5739</v>
+        <v>5740</v>
       </c>
       <c r="D3015" t="s">
-        <v>5740</v>
+        <v>5741</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -69998,10 +69458,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5741</v>
+        <v>5742</v>
       </c>
       <c r="D3016" t="s">
-        <v>5742</v>
+        <v>5743</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70015,10 +69475,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5743</v>
+        <v>5744</v>
       </c>
       <c r="D3017" t="s">
-        <v>5744</v>
+        <v>5745</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70032,10 +69492,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5745</v>
+        <v>5746</v>
       </c>
       <c r="D3018" t="s">
-        <v>2882</v>
+        <v>5747</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70049,10 +69509,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5746</v>
+        <v>5748</v>
       </c>
       <c r="D3019" t="s">
-        <v>5747</v>
+        <v>5749</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70066,7 +69526,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5748</v>
+        <v>5750</v>
       </c>
       <c r="D3020" t="s">
         <v>1568</v>
@@ -70083,10 +69543,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5749</v>
+        <v>5751</v>
       </c>
       <c r="D3021" t="s">
-        <v>5750</v>
+        <v>5752</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70100,10 +69560,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5751</v>
+        <v>5753</v>
       </c>
       <c r="D3022" t="s">
-        <v>5752</v>
+        <v>5754</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70117,10 +69577,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5753</v>
+        <v>5755</v>
       </c>
       <c r="D3023" t="s">
-        <v>5754</v>
+        <v>5756</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70134,10 +69594,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5755</v>
+        <v>5757</v>
       </c>
       <c r="D3024" t="s">
-        <v>5756</v>
+        <v>5758</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70151,10 +69611,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5757</v>
+        <v>5759</v>
       </c>
       <c r="D3025" t="s">
-        <v>5758</v>
+        <v>5760</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70168,10 +69628,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5759</v>
+        <v>5761</v>
       </c>
       <c r="D3026" t="s">
-        <v>5760</v>
+        <v>5762</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70185,10 +69645,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5761</v>
+        <v>5763</v>
       </c>
       <c r="D3027" t="s">
-        <v>5762</v>
+        <v>5764</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70202,10 +69662,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5763</v>
+        <v>5765</v>
       </c>
       <c r="D3028" t="s">
-        <v>5764</v>
+        <v>5766</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70219,10 +69679,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5765</v>
+        <v>5767</v>
       </c>
       <c r="D3029" t="s">
-        <v>5766</v>
+        <v>5768</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70236,10 +69696,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5767</v>
+        <v>5769</v>
       </c>
       <c r="D3030" t="s">
-        <v>5768</v>
+        <v>5770</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70253,10 +69713,10 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5769</v>
+        <v>5771</v>
       </c>
       <c r="D3031" t="s">
-        <v>1127</v>
+        <v>5772</v>
       </c>
       <c r="E3031" t="s">
         <v>8</v>
@@ -70270,10 +69730,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5770</v>
+        <v>5773</v>
       </c>
       <c r="D3032" t="s">
-        <v>5771</v>
+        <v>5774</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70287,7 +69747,7 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5772</v>
+        <v>5775</v>
       </c>
       <c r="D3033" t="s">
         <v>4850</v>
@@ -70304,10 +69764,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5773</v>
+        <v>5776</v>
       </c>
       <c r="D3034" t="s">
-        <v>5774</v>
+        <v>5777</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70321,10 +69781,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5775</v>
+        <v>5778</v>
       </c>
       <c r="D3035" t="s">
-        <v>4860</v>
+        <v>5779</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70338,10 +69798,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5776</v>
+        <v>5780</v>
       </c>
       <c r="D3036" t="s">
-        <v>5777</v>
+        <v>5781</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70355,10 +69815,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5778</v>
+        <v>5782</v>
       </c>
       <c r="D3037" t="s">
-        <v>5779</v>
+        <v>5783</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70372,10 +69832,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5780</v>
+        <v>5784</v>
       </c>
       <c r="D3038" t="s">
-        <v>5781</v>
+        <v>5785</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70389,10 +69849,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5782</v>
+        <v>5786</v>
       </c>
       <c r="D3039" t="s">
-        <v>5783</v>
+        <v>5787</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70406,10 +69866,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5784</v>
+        <v>5788</v>
       </c>
       <c r="D3040" t="s">
-        <v>5785</v>
+        <v>5789</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70423,10 +69883,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5786</v>
+        <v>5790</v>
       </c>
       <c r="D3041" t="s">
-        <v>5787</v>
+        <v>5791</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70440,10 +69900,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5788</v>
+        <v>5792</v>
       </c>
       <c r="D3042" t="s">
-        <v>5789</v>
+        <v>5793</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70457,10 +69917,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5790</v>
+        <v>5794</v>
       </c>
       <c r="D3043" t="s">
-        <v>5791</v>
+        <v>5795</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70474,10 +69934,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5792</v>
+        <v>5796</v>
       </c>
       <c r="D3044" t="s">
-        <v>5793</v>
+        <v>5797</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70491,10 +69951,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5794</v>
+        <v>5798</v>
       </c>
       <c r="D3045" t="s">
-        <v>5795</v>
+        <v>5799</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70508,10 +69968,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5796</v>
+        <v>5800</v>
       </c>
       <c r="D3046" t="s">
-        <v>5797</v>
+        <v>5801</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70525,10 +69985,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5798</v>
+        <v>5802</v>
       </c>
       <c r="D3047" t="s">
-        <v>5799</v>
+        <v>5803</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70542,10 +70002,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5800</v>
+        <v>5804</v>
       </c>
       <c r="D3048" t="s">
-        <v>5801</v>
+        <v>3113</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70559,7 +70019,7 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5802</v>
+        <v>5805</v>
       </c>
       <c r="D3049" t="s">
         <v>822</v>
@@ -70576,10 +70036,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5803</v>
+        <v>5806</v>
       </c>
       <c r="D3050" t="s">
-        <v>5804</v>
+        <v>5807</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70593,10 +70053,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5805</v>
+        <v>5808</v>
       </c>
       <c r="D3051" t="s">
-        <v>5806</v>
+        <v>5809</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70610,10 +70070,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5807</v>
+        <v>5810</v>
       </c>
       <c r="D3052" t="s">
-        <v>5808</v>
+        <v>5811</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70627,10 +70087,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5809</v>
+        <v>5812</v>
       </c>
       <c r="D3053" t="s">
-        <v>5810</v>
+        <v>5813</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70644,10 +70104,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5811</v>
+        <v>5814</v>
       </c>
       <c r="D3054" t="s">
-        <v>5812</v>
+        <v>5815</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70661,10 +70121,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5813</v>
+        <v>5816</v>
       </c>
       <c r="D3055" t="s">
-        <v>5814</v>
+        <v>5817</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70678,10 +70138,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5815</v>
+        <v>5818</v>
       </c>
       <c r="D3056" t="s">
-        <v>5816</v>
+        <v>5819</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70695,10 +70155,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5817</v>
+        <v>5820</v>
       </c>
       <c r="D3057" t="s">
-        <v>5818</v>
+        <v>5821</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70712,10 +70172,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5819</v>
+        <v>5822</v>
       </c>
       <c r="D3058" t="s">
-        <v>4198</v>
+        <v>5823</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70729,10 +70189,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5820</v>
+        <v>5824</v>
       </c>
       <c r="D3059" t="s">
-        <v>5821</v>
+        <v>5825</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70746,10 +70206,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5822</v>
+        <v>5826</v>
       </c>
       <c r="D3060" t="s">
-        <v>5823</v>
+        <v>5827</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70763,10 +70223,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5824</v>
+        <v>5828</v>
       </c>
       <c r="D3061" t="s">
-        <v>5825</v>
+        <v>5829</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70777,13 +70237,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5826</v>
+        <v>5830</v>
       </c>
       <c r="C3062" t="s">
-        <v>5827</v>
+        <v>5831</v>
       </c>
       <c r="D3062" t="s">
-        <v>5828</v>
+        <v>5832</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -70797,10 +70257,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5829</v>
+        <v>5833</v>
       </c>
       <c r="D3063" t="s">
-        <v>5830</v>
+        <v>5834</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -70814,10 +70274,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5831</v>
+        <v>5835</v>
       </c>
       <c r="D3064" t="s">
-        <v>5832</v>
+        <v>4225</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -70831,10 +70291,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5833</v>
+        <v>5836</v>
       </c>
       <c r="D3065" t="s">
-        <v>5834</v>
+        <v>5837</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -70848,10 +70308,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5835</v>
+        <v>5838</v>
       </c>
       <c r="D3066" t="s">
-        <v>5836</v>
+        <v>5839</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -70865,10 +70325,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5837</v>
+        <v>5840</v>
       </c>
       <c r="D3067" t="s">
-        <v>5838</v>
+        <v>5841</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -70882,10 +70342,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5839</v>
+        <v>5842</v>
       </c>
       <c r="D3068" t="s">
-        <v>5840</v>
+        <v>5843</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -70899,10 +70359,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5841</v>
+        <v>5844</v>
       </c>
       <c r="D3069" t="s">
-        <v>5842</v>
+        <v>5845</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -70916,10 +70376,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5843</v>
+        <v>5846</v>
       </c>
       <c r="D3070" t="s">
-        <v>5844</v>
+        <v>2442</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -70933,10 +70393,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5845</v>
+        <v>5847</v>
       </c>
       <c r="D3071" t="s">
-        <v>5846</v>
+        <v>5848</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -70950,10 +70410,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5847</v>
+        <v>5849</v>
       </c>
       <c r="D3072" t="s">
-        <v>5848</v>
+        <v>5850</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -70967,10 +70427,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5849</v>
+        <v>5851</v>
       </c>
       <c r="D3073" t="s">
-        <v>5850</v>
+        <v>5852</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -70984,10 +70444,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
-        <v>5851</v>
+        <v>5853</v>
       </c>
       <c r="D3074" t="s">
-        <v>5852</v>
+        <v>5854</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71001,10 +70461,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
-        <v>5853</v>
+        <v>5855</v>
       </c>
       <c r="D3075" t="s">
-        <v>5854</v>
+        <v>5856</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71018,10 +70478,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5855</v>
+        <v>5857</v>
       </c>
       <c r="D3076" t="s">
-        <v>5856</v>
+        <v>5858</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71035,10 +70495,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5857</v>
+        <v>5859</v>
       </c>
       <c r="D3077" t="s">
-        <v>5858</v>
+        <v>5860</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71052,10 +70512,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5859</v>
+        <v>5861</v>
       </c>
       <c r="D3078" t="s">
-        <v>5860</v>
+        <v>16</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71069,10 +70529,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5861</v>
+        <v>5862</v>
       </c>
       <c r="D3079" t="s">
-        <v>5862</v>
+        <v>5863</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71086,10 +70546,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5863</v>
+        <v>5864</v>
       </c>
       <c r="D3080" t="s">
-        <v>5864</v>
+        <v>5865</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71103,10 +70563,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5865</v>
+        <v>5866</v>
       </c>
       <c r="D3081" t="s">
-        <v>5866</v>
+        <v>5867</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71120,10 +70580,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5867</v>
+        <v>5868</v>
       </c>
       <c r="D3082" t="s">
-        <v>5868</v>
+        <v>5869</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71137,10 +70597,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5869</v>
+        <v>5870</v>
       </c>
       <c r="D3083" t="s">
-        <v>5870</v>
+        <v>5871</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71154,10 +70614,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5871</v>
+        <v>5872</v>
       </c>
       <c r="D3084" t="s">
-        <v>5872</v>
+        <v>5873</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71171,10 +70631,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5873</v>
+        <v>5874</v>
       </c>
       <c r="D3085" t="s">
-        <v>5874</v>
+        <v>5875</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71188,10 +70648,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5875</v>
+        <v>5876</v>
       </c>
       <c r="D3086" t="s">
-        <v>5876</v>
+        <v>5877</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71205,10 +70665,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5877</v>
+        <v>5878</v>
       </c>
       <c r="D3087" t="s">
-        <v>5878</v>
+        <v>5879</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71222,10 +70682,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5879</v>
+        <v>5880</v>
       </c>
       <c r="D3088" t="s">
-        <v>5880</v>
+        <v>5881</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71239,10 +70699,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5881</v>
+        <v>5882</v>
       </c>
       <c r="D3089" t="s">
-        <v>5882</v>
+        <v>5883</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71256,10 +70716,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5883</v>
+        <v>5884</v>
       </c>
       <c r="D3090" t="s">
-        <v>5884</v>
+        <v>5885</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71273,10 +70733,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5885</v>
+        <v>5886</v>
       </c>
       <c r="D3091" t="s">
-        <v>5886</v>
+        <v>5887</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71290,10 +70750,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5887</v>
+        <v>5888</v>
       </c>
       <c r="D3092" t="s">
-        <v>1907</v>
+        <v>5889</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71307,10 +70767,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5888</v>
+        <v>5890</v>
       </c>
       <c r="D3093" t="s">
-        <v>5288</v>
+        <v>5891</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71324,10 +70784,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5889</v>
+        <v>5892</v>
       </c>
       <c r="D3094" t="s">
-        <v>5290</v>
+        <v>5893</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71341,10 +70801,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5890</v>
+        <v>5894</v>
       </c>
       <c r="D3095" t="s">
-        <v>5292</v>
+        <v>5895</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71358,10 +70818,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5891</v>
+        <v>5896</v>
       </c>
       <c r="D3096" t="s">
-        <v>5294</v>
+        <v>5897</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71375,10 +70835,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5892</v>
+        <v>5898</v>
       </c>
       <c r="D3097" t="s">
-        <v>1083</v>
+        <v>5899</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71392,10 +70852,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5893</v>
+        <v>5900</v>
       </c>
       <c r="D3098" t="s">
-        <v>2208</v>
+        <v>5901</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71409,10 +70869,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5894</v>
+        <v>5902</v>
       </c>
       <c r="D3099" t="s">
-        <v>5895</v>
+        <v>5903</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71426,10 +70886,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5896</v>
+        <v>5904</v>
       </c>
       <c r="D3100" t="s">
-        <v>5897</v>
+        <v>5905</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71443,10 +70903,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5898</v>
+        <v>5906</v>
       </c>
       <c r="D3101" t="s">
-        <v>5899</v>
+        <v>1510</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71460,10 +70920,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5900</v>
+        <v>5907</v>
       </c>
       <c r="D3102" t="s">
-        <v>5901</v>
+        <v>5908</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71477,10 +70937,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5902</v>
+        <v>5909</v>
       </c>
       <c r="D3103" t="s">
-        <v>5903</v>
+        <v>5910</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71494,10 +70954,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5904</v>
+        <v>5911</v>
       </c>
       <c r="D3104" t="s">
-        <v>5905</v>
+        <v>5912</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71511,10 +70971,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5906</v>
+        <v>5913</v>
       </c>
       <c r="D3105" t="s">
-        <v>5907</v>
+        <v>5914</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71528,10 +70988,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5908</v>
+        <v>5915</v>
       </c>
       <c r="D3106" t="s">
-        <v>5909</v>
+        <v>5916</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71545,10 +71005,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5910</v>
+        <v>5917</v>
       </c>
       <c r="D3107" t="s">
-        <v>5911</v>
+        <v>5918</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71562,10 +71022,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5912</v>
+        <v>5919</v>
       </c>
       <c r="D3108" t="s">
-        <v>5913</v>
+        <v>5920</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71578,11 +71038,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5914</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>5915</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71595,11 +71055,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5922</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71613,10 +71073,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5916</v>
+        <v>5923</v>
       </c>
       <c r="D3111" t="s">
-        <v>5917</v>
+        <v>5924</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71630,10 +71090,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5918</v>
+        <v>5925</v>
       </c>
       <c r="D3112" t="s">
-        <v>5919</v>
+        <v>5926</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71647,10 +71107,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
-        <v>5920</v>
+        <v>5927</v>
       </c>
       <c r="D3113" t="s">
-        <v>2662</v>
+        <v>5928</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71664,10 +71124,10 @@
         <v>5</v>
       </c>
       <c r="C3114" t="s">
-        <v>5921</v>
+        <v>5929</v>
       </c>
       <c r="D3114" t="s">
-        <v>5922</v>
+        <v>5930</v>
       </c>
       <c r="E3114" t="s">
         <v>8</v>
@@ -71681,10 +71141,10 @@
         <v>5</v>
       </c>
       <c r="C3115" t="s">
-        <v>5923</v>
+        <v>5931</v>
       </c>
       <c r="D3115" t="s">
-        <v>5924</v>
+        <v>5932</v>
       </c>
       <c r="E3115" t="s">
         <v>8</v>
@@ -71698,10 +71158,10 @@
         <v>5</v>
       </c>
       <c r="C3116" t="s">
-        <v>5925</v>
+        <v>5933</v>
       </c>
       <c r="D3116" t="s">
-        <v>5926</v>
+        <v>5934</v>
       </c>
       <c r="E3116" t="s">
         <v>8</v>
@@ -71715,10 +71175,10 @@
         <v>5</v>
       </c>
       <c r="C3117" t="s">
-        <v>5927</v>
+        <v>5935</v>
       </c>
       <c r="D3117" t="s">
-        <v>5928</v>
+        <v>5936</v>
       </c>
       <c r="E3117" t="s">
         <v>8</v>
@@ -71732,10 +71192,10 @@
         <v>5</v>
       </c>
       <c r="C3118" t="s">
-        <v>5929</v>
+        <v>5937</v>
       </c>
       <c r="D3118" t="s">
-        <v>5930</v>
+        <v>5938</v>
       </c>
       <c r="E3118" t="s">
         <v>8</v>
@@ -71749,1678 +71209,12 @@
         <v>5</v>
       </c>
       <c r="C3119" t="s">
-        <v>5931</v>
+        <v>5939</v>
       </c>
       <c r="D3119" t="s">
-        <v>5932</v>
+        <v>5940</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5933</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5934</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5935</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5936</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5937</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>5938</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>5939</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>5940</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>5941</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>5942</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>5943</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>5944</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>5945</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>5946</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>5947</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>5948</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>5949</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>5950</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>5951</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>5952</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>5953</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>5954</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>5955</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>5956</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>5957</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>5958</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>5959</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>5960</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>5961</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>5962</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>5963</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>5964</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>5965</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>5966</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>5967</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>5968</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>5969</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>5970</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>5971</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>5972</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>5973</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>5974</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>5975</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>5976</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>5977</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>5978</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>5979</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>5980</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>5981</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>5982</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>5983</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>5984</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>5985</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>5986</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>5987</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>5988</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>5989</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2712</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>5990</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>5991</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>5992</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>5993</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>5994</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>5995</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>5996</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>5997</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>5998</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>5999</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6000</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6001</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6002</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6003</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6004</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6005</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6006</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5826</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6007</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6008</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6009</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6010</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6011</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6012</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6013</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6014</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6014</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6013</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6015</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6016</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6017</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6018</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6019</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6019</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6020</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6021</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6022</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6023</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6024</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>2241</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6025</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6026</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6027</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6028</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6029</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6030</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6031</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6032</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6036</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6038</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6039</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6040</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6041</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6042</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6043</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6044</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6045</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6046</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6047</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6048</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6049</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1811</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6056</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>910</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6063</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6064</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6065</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6067</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6068</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6069</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6075</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6076</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6077</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>493</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6098</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6099</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6100</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6101</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6102</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6103</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6104</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6105</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4316</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>2918</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6111</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6112</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6115</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6116</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6117</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6118</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6120</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
